--- a/InputData/trans/AVIC/Annual Vehicle Insurance Cost.xlsx
+++ b/InputData/trans/AVIC/Annual Vehicle Insurance Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\trans\AVIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claire Trevisan\Dropbox (Energy Innovation)\Documents\GitHub\eps-eu\InputData\trans\AVIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C68CA1-D4E5-4267-A93A-22A2147EC345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397240F7-AE0F-46A6-8593-80EF38CE0D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="1470" windowWidth="22500" windowHeight="21135" xr2:uid="{D78DFE5E-0A7F-4A12-AD34-4FEABB0CFCE7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D78DFE5E-0A7F-4A12-AD34-4FEABB0CFCE7}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t>AVIC Annual Vehicle Insurance Cost</t>
   </si>
@@ -77,42 +77,15 @@
     <t>freight</t>
   </si>
   <si>
-    <t>Data from AAA:</t>
-  </si>
-  <si>
     <t>$/yr (2019 USD)</t>
   </si>
   <si>
     <t>Freight HDVs</t>
   </si>
   <si>
-    <t>Progressive Commercial</t>
-  </si>
-  <si>
     <t>undated</t>
   </si>
   <si>
-    <t>What does commercial truck insurance cost?</t>
-  </si>
-  <si>
-    <t>https://www.progressivecommercial.com/commercial-auto-insurance/truck-insurance/commercial-truck-insurance-cost/</t>
-  </si>
-  <si>
-    <t>$/mth</t>
-  </si>
-  <si>
-    <t>Avg. for specialty truckers</t>
-  </si>
-  <si>
-    <t>Avg. for transport truckers</t>
-  </si>
-  <si>
-    <t>Overall simple average</t>
-  </si>
-  <si>
-    <t>Annualized</t>
-  </si>
-  <si>
     <t>$/yr</t>
   </si>
   <si>
@@ -122,15 +95,9 @@
     <t>Likely includes primary liability insurance, physical damage insurance, occupational accident coverage, and general liability insurance.</t>
   </si>
   <si>
-    <t>For more on these insurance types, see https://www.caranddriver.com/car-insurance/a36320549/truck-insurance-cost/</t>
-  </si>
-  <si>
     <t>Passenger HDVs (buses)</t>
   </si>
   <si>
-    <t>50-state average</t>
-  </si>
-  <si>
     <t>Bus Insurance HQ</t>
   </si>
   <si>
@@ -140,48 +107,12 @@
     <t>Freight LDVs</t>
   </si>
   <si>
-    <t>Car and Driver magazine</t>
-  </si>
-  <si>
-    <t>https://www.caranddriver.com/car-insurance/a36232977/commercial-auto-insurance-cost/</t>
-  </si>
-  <si>
-    <t>Commercial Auto Insurance Cost: Everything You Need to Know</t>
-  </si>
-  <si>
     <t>Using data from Car and Driver magazine (2021):</t>
   </si>
   <si>
-    <t>standard car used for business purposes</t>
-  </si>
-  <si>
-    <t>Limousine</t>
-  </si>
-  <si>
-    <t>Cargo or delivery van</t>
-  </si>
-  <si>
-    <t>Taxi</t>
-  </si>
-  <si>
-    <t>Semi-truck</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Simple Avg</t>
-  </si>
-  <si>
     <t>$/yr (2021 USD)</t>
   </si>
   <si>
-    <t>For freight LDVs, the value for "cargo or delivery van" is most appropriate.</t>
-  </si>
-  <si>
     <t>Passenger LDV</t>
   </si>
   <si>
@@ -212,9 +143,6 @@
     <t>insurance quotes.</t>
   </si>
   <si>
-    <t>Insurance costs for rail, commercial airlines, and freight shipping is harder to come by.  It appears these firms</t>
-  </si>
-  <si>
     <t>often buy policies covering a broader share of company operations, not just individual vehicles.  For instance,</t>
   </si>
   <si>
@@ -246,16 +174,132 @@
   </si>
   <si>
     <t>2012 USD/year</t>
+  </si>
+  <si>
+    <t>Euro/yr (2016 Euro)</t>
+  </si>
+  <si>
+    <t>European Motor Insurance Markets</t>
+  </si>
+  <si>
+    <t>Insurance Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.insuranceeurope.eu/publications/465/european-motor-insurance-markets/ </t>
+  </si>
+  <si>
+    <t>In the United States, Data from AAA:</t>
+  </si>
+  <si>
+    <t>2016 USD per Euro</t>
+  </si>
+  <si>
+    <t>Source: https://www.exchangerates.org.uk/EUR-USD-spot-exchange-rates-history-2016.html</t>
+  </si>
+  <si>
+    <t>2016 to 2019 USD</t>
+  </si>
+  <si>
+    <t>2016 to 2012 USD</t>
+  </si>
+  <si>
+    <t>Data from Insurance Europe:</t>
+  </si>
+  <si>
+    <t>Scaling Factor</t>
+  </si>
+  <si>
+    <t>Euoropean spending on insurance compared to the US</t>
+  </si>
+  <si>
+    <t>Data in 2019 USD</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gocompare.com/van-insurance/commercial/ </t>
+  </si>
+  <si>
+    <t>Social use only</t>
+  </si>
+  <si>
+    <t>Carriage of own goods</t>
+  </si>
+  <si>
+    <t>Goods for hire and reward</t>
+  </si>
+  <si>
+    <t>Haulage</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Euro (2022)</t>
+  </si>
+  <si>
+    <t>Commercial Van Insurance</t>
+  </si>
+  <si>
+    <t>https://www.gocompare.com/van-insurance/commercial/</t>
+  </si>
+  <si>
+    <t>Go.Compare</t>
+  </si>
+  <si>
+    <t>Using data from Go.Compare (2022):</t>
+  </si>
+  <si>
+    <t>2022 USD per Euro</t>
+  </si>
+  <si>
+    <t>2022 to 2012 USD (est.)</t>
+  </si>
+  <si>
+    <t>$/yr (2022 USD)</t>
+  </si>
+  <si>
+    <t>For freight LDVs, the value for "Goods for hire and reward" is most appropriate.</t>
+  </si>
+  <si>
+    <t>Comprehensive commercial van insurance covers all the things third party fire and theft insurance (TPFT) does and also includes repair or replacement of your vehicle after an accident</t>
+  </si>
+  <si>
+    <t>Freight LDVs and HDVs</t>
+  </si>
+  <si>
+    <t>Insurance costs for rail, commercial airlines, and freight shipping are harder to come by.  It appears these firms</t>
+  </si>
+  <si>
+    <t>Cargo or delivery van insurance cost in the US</t>
+  </si>
+  <si>
+    <t>Insurance Cost Scaling Factors: US to EU</t>
+  </si>
+  <si>
+    <t>Annualized average for truck insurance in the US</t>
+  </si>
+  <si>
+    <t>Using data from Progressive Commercial</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>50-state average (US)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,8 +323,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +362,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -315,11 +384,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -339,8 +409,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -355,6 +435,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>106175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>93330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D16965A-C60A-9134-ED9B-F83AED0DE475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7964300" y="1943100"/>
+          <a:ext cx="3262500" cy="2874630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -654,503 +783,620 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC790369-4F84-43C0-97E9-6D0C01E4139F}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="10">
+        <v>1.0649402869377418</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="10">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="10">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="10">
+        <f>A46/(1+A52)</f>
+        <v>0.83052434456928836</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="10">
+        <v>0.78553197418898923</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="10">
+        <v>0.95661376543184151</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1.1068</v>
+      </c>
+      <c r="B56" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="B46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="B47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
-        <f>A47/(1+A50)</f>
-        <v>0.83052434456928836</v>
-      </c>
-      <c r="B48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="B50" t="s">
-        <v>68</v>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1.0538000000000001</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{E31DF05E-B87F-4D1B-AC11-F88AEEDA7D2F}"/>
-    <hyperlink ref="B19" r:id="rId2" xr:uid="{DC3E2816-48AF-4FA2-A726-B61F86FC64CE}"/>
-    <hyperlink ref="B24" r:id="rId3" xr:uid="{929BA16D-4044-4610-8C77-D354B466069A}"/>
-    <hyperlink ref="B13" r:id="rId4" xr:uid="{3786F80B-C165-478C-A885-8E7EE782E47E}"/>
-    <hyperlink ref="B30" r:id="rId5" xr:uid="{ECB38255-597D-4E40-A940-86F690DADDBD}"/>
+    <hyperlink ref="B23" r:id="rId2" xr:uid="{929BA16D-4044-4610-8C77-D354B466069A}"/>
+    <hyperlink ref="B29" r:id="rId3" xr:uid="{ECB38255-597D-4E40-A940-86F690DADDBD}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{A2476024-DBCB-4526-A80A-D78E46376AF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C907FFC-9E03-403C-A103-2A580B24C105}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="6" max="6" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>205</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1194</v>
+      </c>
+      <c r="H4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1194</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="14">
+        <f>B4*About!A56*About!A44</f>
+        <v>241.62856146445199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14">
+        <v>572</v>
+      </c>
+      <c r="C14" s="15">
+        <f>B14*About!$A$57</f>
+        <v>602.77359999999999</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15">
+        <v>565</v>
+      </c>
+      <c r="C15" s="15">
+        <f>B15*About!$A$57</f>
+        <v>595.39700000000005</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16">
+        <v>1515</v>
+      </c>
+      <c r="C16" s="16">
+        <f>B16*About!$A$57</f>
+        <v>1596.5070000000001</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="8">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>1464</v>
+      </c>
+      <c r="C17" s="15">
+        <f>B17*About!$A$57</f>
+        <v>1542.7632000000001</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11">
-        <v>600</v>
-      </c>
-      <c r="C11">
-        <v>2400</v>
-      </c>
-      <c r="D11">
-        <f>AVERAGE(B11:C11)</f>
-        <v>1500</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12">
-        <v>4000</v>
-      </c>
-      <c r="C12">
-        <v>10000</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12:D15" si="0">AVERAGE(B12:C12)</f>
-        <v>7000</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <v>3300</v>
-      </c>
-      <c r="C13">
-        <v>6200</v>
-      </c>
-      <c r="D13" s="8">
-        <f t="shared" si="0"/>
-        <v>4750</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14">
-        <v>5000</v>
-      </c>
-      <c r="C14">
-        <v>10000</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>7500</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15">
-        <v>8000</v>
-      </c>
-      <c r="C15">
-        <v>12500</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>10250</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>640</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="16">
+        <f>C17</f>
+        <v>1542.7632000000001</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="8">
+        <v>9732</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="10">
+        <f>B7/G4</f>
+        <v>0.20236897945096483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>982</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <f>AVERAGE(B21:B22)</f>
-        <v>811</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B31" s="10">
+        <f>C16/G16</f>
+        <v>0.33610673684210529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="10">
+        <f>B24/G24</f>
+        <v>0.15852478421701605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="10">
+        <f>AVERAGE(B30:B32)</f>
+        <v>0.23233350017002871</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="8">
+        <v>9420</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="13">
+        <f>B37*B33</f>
+        <v>2188.5815716016705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="8">
+        <v>721</v>
+      </c>
+      <c r="C43" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="8">
-        <f>B23*12</f>
-        <v>9732</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8">
-        <v>9420</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="8">
-        <v>721</v>
-      </c>
-      <c r="C37" t="s">
-        <v>46</v>
+      <c r="G43" s="13">
+        <f>B43*B33</f>
+        <v>167.5124536225907</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{F1D91859-B839-4E44-BEB6-CB495B26EEFA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1161,17 +1407,19 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="3" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>11</v>
@@ -1180,33 +1428,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="11">
-        <f>Data!B4*About!A46</f>
-        <v>1072.212</v>
+        <f>Data!B7*About!A45</f>
+        <v>216.98244819507789</v>
       </c>
       <c r="C2" s="11">
-        <f>Data!D13*About!A48</f>
-        <v>3944.9906367041199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <f>Data!C16*About!A48</f>
+        <v>1254.1072955165407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="11">
-        <f>Data!B31*About!A48</f>
-        <v>7823.5393258426966</v>
+        <f>Data!G37*About!A47</f>
+        <v>1817.6702752909005</v>
       </c>
       <c r="C3" s="11">
         <f>Data!B24*About!A48</f>
-        <v>8082.6629213483147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1211.8898222021226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1217,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1228,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1239,13 +1487,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11">
-        <f>Data!B37*About!A48</f>
-        <v>598.80805243445695</v>
+        <f>Data!G43*About!A47</f>
+        <v>139.12317075209546</v>
       </c>
       <c r="C7">
         <v>0</v>

--- a/InputData/trans/AVIC/Annual Vehicle Insurance Cost.xlsx
+++ b/InputData/trans/AVIC/Annual Vehicle Insurance Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\trans\AVIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claire Trevisan\Dropbox (Energy Innovation)\Documents\GitHub\eps-eu\InputData\trans\AVIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C68CA1-D4E5-4267-A93A-22A2147EC345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397240F7-AE0F-46A6-8593-80EF38CE0D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="1470" windowWidth="22500" windowHeight="21135" xr2:uid="{D78DFE5E-0A7F-4A12-AD34-4FEABB0CFCE7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D78DFE5E-0A7F-4A12-AD34-4FEABB0CFCE7}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t>AVIC Annual Vehicle Insurance Cost</t>
   </si>
@@ -77,42 +77,15 @@
     <t>freight</t>
   </si>
   <si>
-    <t>Data from AAA:</t>
-  </si>
-  <si>
     <t>$/yr (2019 USD)</t>
   </si>
   <si>
     <t>Freight HDVs</t>
   </si>
   <si>
-    <t>Progressive Commercial</t>
-  </si>
-  <si>
     <t>undated</t>
   </si>
   <si>
-    <t>What does commercial truck insurance cost?</t>
-  </si>
-  <si>
-    <t>https://www.progressivecommercial.com/commercial-auto-insurance/truck-insurance/commercial-truck-insurance-cost/</t>
-  </si>
-  <si>
-    <t>$/mth</t>
-  </si>
-  <si>
-    <t>Avg. for specialty truckers</t>
-  </si>
-  <si>
-    <t>Avg. for transport truckers</t>
-  </si>
-  <si>
-    <t>Overall simple average</t>
-  </si>
-  <si>
-    <t>Annualized</t>
-  </si>
-  <si>
     <t>$/yr</t>
   </si>
   <si>
@@ -122,15 +95,9 @@
     <t>Likely includes primary liability insurance, physical damage insurance, occupational accident coverage, and general liability insurance.</t>
   </si>
   <si>
-    <t>For more on these insurance types, see https://www.caranddriver.com/car-insurance/a36320549/truck-insurance-cost/</t>
-  </si>
-  <si>
     <t>Passenger HDVs (buses)</t>
   </si>
   <si>
-    <t>50-state average</t>
-  </si>
-  <si>
     <t>Bus Insurance HQ</t>
   </si>
   <si>
@@ -140,48 +107,12 @@
     <t>Freight LDVs</t>
   </si>
   <si>
-    <t>Car and Driver magazine</t>
-  </si>
-  <si>
-    <t>https://www.caranddriver.com/car-insurance/a36232977/commercial-auto-insurance-cost/</t>
-  </si>
-  <si>
-    <t>Commercial Auto Insurance Cost: Everything You Need to Know</t>
-  </si>
-  <si>
     <t>Using data from Car and Driver magazine (2021):</t>
   </si>
   <si>
-    <t>standard car used for business purposes</t>
-  </si>
-  <si>
-    <t>Limousine</t>
-  </si>
-  <si>
-    <t>Cargo or delivery van</t>
-  </si>
-  <si>
-    <t>Taxi</t>
-  </si>
-  <si>
-    <t>Semi-truck</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Simple Avg</t>
-  </si>
-  <si>
     <t>$/yr (2021 USD)</t>
   </si>
   <si>
-    <t>For freight LDVs, the value for "cargo or delivery van" is most appropriate.</t>
-  </si>
-  <si>
     <t>Passenger LDV</t>
   </si>
   <si>
@@ -212,9 +143,6 @@
     <t>insurance quotes.</t>
   </si>
   <si>
-    <t>Insurance costs for rail, commercial airlines, and freight shipping is harder to come by.  It appears these firms</t>
-  </si>
-  <si>
     <t>often buy policies covering a broader share of company operations, not just individual vehicles.  For instance,</t>
   </si>
   <si>
@@ -246,16 +174,132 @@
   </si>
   <si>
     <t>2012 USD/year</t>
+  </si>
+  <si>
+    <t>Euro/yr (2016 Euro)</t>
+  </si>
+  <si>
+    <t>European Motor Insurance Markets</t>
+  </si>
+  <si>
+    <t>Insurance Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.insuranceeurope.eu/publications/465/european-motor-insurance-markets/ </t>
+  </si>
+  <si>
+    <t>In the United States, Data from AAA:</t>
+  </si>
+  <si>
+    <t>2016 USD per Euro</t>
+  </si>
+  <si>
+    <t>Source: https://www.exchangerates.org.uk/EUR-USD-spot-exchange-rates-history-2016.html</t>
+  </si>
+  <si>
+    <t>2016 to 2019 USD</t>
+  </si>
+  <si>
+    <t>2016 to 2012 USD</t>
+  </si>
+  <si>
+    <t>Data from Insurance Europe:</t>
+  </si>
+  <si>
+    <t>Scaling Factor</t>
+  </si>
+  <si>
+    <t>Euoropean spending on insurance compared to the US</t>
+  </si>
+  <si>
+    <t>Data in 2019 USD</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gocompare.com/van-insurance/commercial/ </t>
+  </si>
+  <si>
+    <t>Social use only</t>
+  </si>
+  <si>
+    <t>Carriage of own goods</t>
+  </si>
+  <si>
+    <t>Goods for hire and reward</t>
+  </si>
+  <si>
+    <t>Haulage</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Euro (2022)</t>
+  </si>
+  <si>
+    <t>Commercial Van Insurance</t>
+  </si>
+  <si>
+    <t>https://www.gocompare.com/van-insurance/commercial/</t>
+  </si>
+  <si>
+    <t>Go.Compare</t>
+  </si>
+  <si>
+    <t>Using data from Go.Compare (2022):</t>
+  </si>
+  <si>
+    <t>2022 USD per Euro</t>
+  </si>
+  <si>
+    <t>2022 to 2012 USD (est.)</t>
+  </si>
+  <si>
+    <t>$/yr (2022 USD)</t>
+  </si>
+  <si>
+    <t>For freight LDVs, the value for "Goods for hire and reward" is most appropriate.</t>
+  </si>
+  <si>
+    <t>Comprehensive commercial van insurance covers all the things third party fire and theft insurance (TPFT) does and also includes repair or replacement of your vehicle after an accident</t>
+  </si>
+  <si>
+    <t>Freight LDVs and HDVs</t>
+  </si>
+  <si>
+    <t>Insurance costs for rail, commercial airlines, and freight shipping are harder to come by.  It appears these firms</t>
+  </si>
+  <si>
+    <t>Cargo or delivery van insurance cost in the US</t>
+  </si>
+  <si>
+    <t>Insurance Cost Scaling Factors: US to EU</t>
+  </si>
+  <si>
+    <t>Annualized average for truck insurance in the US</t>
+  </si>
+  <si>
+    <t>Using data from Progressive Commercial</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>50-state average (US)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,8 +323,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +362,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -315,11 +384,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -339,8 +409,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -355,6 +435,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>106175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>93330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D16965A-C60A-9134-ED9B-F83AED0DE475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7964300" y="1943100"/>
+          <a:ext cx="3262500" cy="2874630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -654,503 +783,620 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC790369-4F84-43C0-97E9-6D0C01E4139F}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="10">
+        <v>1.0649402869377418</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="10">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="10">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="10">
+        <f>A46/(1+A52)</f>
+        <v>0.83052434456928836</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="10">
+        <v>0.78553197418898923</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="10">
+        <v>0.95661376543184151</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1.1068</v>
+      </c>
+      <c r="B56" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="B46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="B47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
-        <f>A47/(1+A50)</f>
-        <v>0.83052434456928836</v>
-      </c>
-      <c r="B48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="B50" t="s">
-        <v>68</v>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1.0538000000000001</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{E31DF05E-B87F-4D1B-AC11-F88AEEDA7D2F}"/>
-    <hyperlink ref="B19" r:id="rId2" xr:uid="{DC3E2816-48AF-4FA2-A726-B61F86FC64CE}"/>
-    <hyperlink ref="B24" r:id="rId3" xr:uid="{929BA16D-4044-4610-8C77-D354B466069A}"/>
-    <hyperlink ref="B13" r:id="rId4" xr:uid="{3786F80B-C165-478C-A885-8E7EE782E47E}"/>
-    <hyperlink ref="B30" r:id="rId5" xr:uid="{ECB38255-597D-4E40-A940-86F690DADDBD}"/>
+    <hyperlink ref="B23" r:id="rId2" xr:uid="{929BA16D-4044-4610-8C77-D354B466069A}"/>
+    <hyperlink ref="B29" r:id="rId3" xr:uid="{ECB38255-597D-4E40-A940-86F690DADDBD}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{A2476024-DBCB-4526-A80A-D78E46376AF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C907FFC-9E03-403C-A103-2A580B24C105}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="6" max="6" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>205</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1194</v>
+      </c>
+      <c r="H4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1194</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="14">
+        <f>B4*About!A56*About!A44</f>
+        <v>241.62856146445199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14">
+        <v>572</v>
+      </c>
+      <c r="C14" s="15">
+        <f>B14*About!$A$57</f>
+        <v>602.77359999999999</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15">
+        <v>565</v>
+      </c>
+      <c r="C15" s="15">
+        <f>B15*About!$A$57</f>
+        <v>595.39700000000005</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16">
+        <v>1515</v>
+      </c>
+      <c r="C16" s="16">
+        <f>B16*About!$A$57</f>
+        <v>1596.5070000000001</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="8">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>1464</v>
+      </c>
+      <c r="C17" s="15">
+        <f>B17*About!$A$57</f>
+        <v>1542.7632000000001</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11">
-        <v>600</v>
-      </c>
-      <c r="C11">
-        <v>2400</v>
-      </c>
-      <c r="D11">
-        <f>AVERAGE(B11:C11)</f>
-        <v>1500</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12">
-        <v>4000</v>
-      </c>
-      <c r="C12">
-        <v>10000</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12:D15" si="0">AVERAGE(B12:C12)</f>
-        <v>7000</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <v>3300</v>
-      </c>
-      <c r="C13">
-        <v>6200</v>
-      </c>
-      <c r="D13" s="8">
-        <f t="shared" si="0"/>
-        <v>4750</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14">
-        <v>5000</v>
-      </c>
-      <c r="C14">
-        <v>10000</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>7500</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15">
-        <v>8000</v>
-      </c>
-      <c r="C15">
-        <v>12500</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>10250</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>640</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="16">
+        <f>C17</f>
+        <v>1542.7632000000001</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="8">
+        <v>9732</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="10">
+        <f>B7/G4</f>
+        <v>0.20236897945096483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>982</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <f>AVERAGE(B21:B22)</f>
-        <v>811</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B31" s="10">
+        <f>C16/G16</f>
+        <v>0.33610673684210529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="10">
+        <f>B24/G24</f>
+        <v>0.15852478421701605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="10">
+        <f>AVERAGE(B30:B32)</f>
+        <v>0.23233350017002871</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="8">
+        <v>9420</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="13">
+        <f>B37*B33</f>
+        <v>2188.5815716016705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="8">
+        <v>721</v>
+      </c>
+      <c r="C43" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="8">
-        <f>B23*12</f>
-        <v>9732</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8">
-        <v>9420</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="8">
-        <v>721</v>
-      </c>
-      <c r="C37" t="s">
-        <v>46</v>
+      <c r="G43" s="13">
+        <f>B43*B33</f>
+        <v>167.5124536225907</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{F1D91859-B839-4E44-BEB6-CB495B26EEFA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1161,17 +1407,19 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="3" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>11</v>
@@ -1180,33 +1428,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="11">
-        <f>Data!B4*About!A46</f>
-        <v>1072.212</v>
+        <f>Data!B7*About!A45</f>
+        <v>216.98244819507789</v>
       </c>
       <c r="C2" s="11">
-        <f>Data!D13*About!A48</f>
-        <v>3944.9906367041199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <f>Data!C16*About!A48</f>
+        <v>1254.1072955165407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="11">
-        <f>Data!B31*About!A48</f>
-        <v>7823.5393258426966</v>
+        <f>Data!G37*About!A47</f>
+        <v>1817.6702752909005</v>
       </c>
       <c r="C3" s="11">
         <f>Data!B24*About!A48</f>
-        <v>8082.6629213483147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1211.8898222021226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1217,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1228,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1239,13 +1487,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11">
-        <f>Data!B37*About!A48</f>
-        <v>598.80805243445695</v>
+        <f>Data!G43*About!A47</f>
+        <v>139.12317075209546</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1254,4 +1502,259 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8460AFB-1FF1-4B84-B6D0-3BC1DC465BD7}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF14662F-D00E-429C-A3A9-582C9794E9B8}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2E96B00-CDB4-4774-AF93-BD94EF150330}"/>
 </file>